--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>id</t>
@@ -24,10 +27,61 @@
     <t>bagId</t>
   </si>
   <si>
+    <t>qualityId</t>
+  </si>
+  <si>
+    <t>generationAreaId</t>
+  </si>
+  <si>
+    <t>maxExistenceTime</t>
+  </si>
+  <si>
+    <t>existenceTime</t>
+  </si>
+  <si>
+    <t>generationInterval</t>
+  </si>
+  <si>
+    <t>successRate</t>
+  </si>
+  <si>
+    <t>hitPoint</t>
+  </si>
+  <si>
+    <t>resultAlgo</t>
+  </si>
+  <si>
     <t xml:space="preserve">采集物品 ID</t>
   </si>
   <si>
-    <t xml:space="preserve">背包物品 ID</t>
+    <t xml:space="preserve">背包物 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品质 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成区域 ID</t>
+  </si>
+  <si>
+    <t>最大存在数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">存在时间（秒 Sec）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成间隔（秒 Sec）</t>
+  </si>
+  <si>
+    <t>采集成功率（%）</t>
+  </si>
+  <si>
+    <t>可采集次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">采集结果算法 ID</t>
+  </si>
+  <si>
+    <t>0|0</t>
   </si>
 </sst>
 </file>
@@ -618,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,9 +681,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1472,35 +1523,67 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" s="2" customFormat="1">
+    <row r="2" s="2" customFormat="1" ht="30">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1508,20 +1591,36 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1534,7 +1633,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1546,20 +1645,36 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3600</v>
+      </c>
+      <c r="G5" s="7">
+        <v>300</v>
+      </c>
+      <c r="H5" s="1">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1568,12 +1683,12 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1584,13 +1699,13 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1601,13 +1716,13 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1618,13 +1733,13 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1635,13 +1750,13 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1652,13 +1767,13 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1669,12 +1784,12 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
-      <c r="A12" s="8"/>
+      <c r="A12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1685,144 +1800,144 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" s="1" customFormat="1">
-      <c r="A15" s="8"/>
+      <c r="A15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1">
-      <c r="A16" s="8"/>
+      <c r="A16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="1">
-      <c r="A17" s="8"/>
+      <c r="A17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1833,12 +1948,12 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1849,12 +1964,12 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1865,12 +1980,12 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1881,12 +1996,12 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1897,13 +2012,13 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1914,13 +2029,13 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1931,12 +2046,12 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1947,12 +2062,12 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1963,12 +2078,12 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1979,12 +2094,12 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1995,12 +2110,12 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2011,12 +2126,12 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2027,12 +2142,12 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2043,12 +2158,12 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="7"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2059,10 +2174,10 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2075,10 +2190,10 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2091,10 +2206,10 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="7"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2107,10 +2222,10 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2123,10 +2238,10 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2139,10 +2254,10 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2155,10 +2270,10 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2171,10 +2286,10 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2187,10 +2302,10 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -33,7 +33,7 @@
     <t>generationAreaId</t>
   </si>
   <si>
-    <t>maxExistenceTime</t>
+    <t>existenceCount</t>
   </si>
   <si>
     <t>existenceTime</t>
@@ -672,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -682,9 +682,6 @@
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1591,10 +1588,10 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1633,7 +1630,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1645,25 +1642,25 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>3600</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>300</v>
       </c>
       <c r="H5" s="1">
@@ -1683,12 +1680,12 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1699,13 +1696,13 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1716,13 +1713,13 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1751,12 +1748,12 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1770,10 +1767,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1786,10 +1783,10 @@
     <row r="12" s="1" customFormat="1">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1801,20 +1798,20 @@
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
@@ -1822,122 +1819,122 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1948,12 +1945,12 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1964,12 +1961,12 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1980,12 +1977,12 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1996,12 +1993,12 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2012,13 +2009,13 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2029,13 +2026,13 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="7"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2046,12 +2043,12 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="7"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2062,12 +2059,12 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2078,12 +2075,12 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2094,12 +2091,12 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2110,12 +2107,12 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="7"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2126,12 +2123,12 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="7"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2142,12 +2139,12 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2158,12 +2155,12 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="7"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2174,10 +2171,10 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2190,10 +2187,10 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2206,10 +2203,10 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2222,10 +2219,10 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2238,10 +2235,10 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2254,10 +2251,10 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2270,10 +2267,10 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2286,10 +2283,10 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2302,10 +2299,10 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -1679,16 +1679,36 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3600</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>20</v>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -13,12 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>int[]</t>
   </si>
   <si>
     <t>id</t>
@@ -28,9 +25,6 @@
   </si>
   <si>
     <t>qualityId</t>
-  </si>
-  <si>
-    <t>generationAreaId</t>
   </si>
   <si>
     <t>existenceCount</t>
@@ -60,9 +54,6 @@
     <t xml:space="preserve">品质 ID</t>
   </si>
   <si>
-    <t xml:space="preserve">生成区域 ID</t>
-  </si>
-  <si>
     <t>最大存在数量</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">采集结果算法 ID</t>
-  </si>
-  <si>
-    <t>0|0</t>
   </si>
 </sst>
 </file>
@@ -1500,17 +1488,16 @@
     <col min="1" max="1" style="0" width="10.875"/>
     <col customWidth="1" min="2" max="2" style="1" width="16.0833333333333"/>
     <col customWidth="1" min="3" max="3" width="10.7916666666667"/>
-    <col customWidth="1" min="4" max="4" style="0" width="16.0833333333333"/>
-    <col customWidth="1" min="5" max="5" style="0" width="15"/>
-    <col customWidth="1" min="6" max="6" style="0" width="17.1666666666667"/>
-    <col customWidth="1" min="7" max="7" style="0" width="16.258333333333301"/>
-    <col customWidth="1" min="8" max="8" style="0" width="42.850000000000001"/>
-    <col customWidth="1" min="9" max="9" style="0" width="13.658333333333299"/>
-    <col customWidth="1" min="10" max="10" style="0" width="16.0833333333333"/>
-    <col customWidth="1" min="11" max="11" style="0" width="23.350000000000001"/>
-    <col customWidth="1" min="12" max="12" style="0" width="51.216666666666697"/>
-    <col customWidth="1" min="13" max="15" style="0" width="17.1666666666667"/>
-    <col min="16" max="16384" style="0" width="10.875"/>
+    <col customWidth="1" min="4" max="4" style="0" width="15"/>
+    <col customWidth="1" min="5" max="5" style="0" width="17.1666666666667"/>
+    <col customWidth="1" min="6" max="6" style="0" width="16.258333333333301"/>
+    <col customWidth="1" min="7" max="7" style="0" width="42.850000000000001"/>
+    <col customWidth="1" min="8" max="8" style="0" width="13.658333333333299"/>
+    <col customWidth="1" min="9" max="9" style="0" width="16.0833333333333"/>
+    <col customWidth="1" min="10" max="10" style="0" width="23.350000000000001"/>
+    <col customWidth="1" min="11" max="11" style="0" width="51.216666666666697"/>
+    <col customWidth="1" min="12" max="14" style="0" width="17.1666666666667"/>
+    <col min="15" max="16384" style="0" width="10.875"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -1524,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -1535,102 +1522,93 @@
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="30">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1639,7 +1617,6 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
       <c r="A5" s="4">
@@ -1651,32 +1628,29 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
+      <c r="D5" s="4">
+        <v>10</v>
       </c>
       <c r="E5" s="4">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
         <v>3600</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F5" s="6">
         <v>300</v>
       </c>
+      <c r="G5" s="1">
+        <v>80</v>
+      </c>
       <c r="H5" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1">
         <v>0</v>
       </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
       <c r="A6" s="1">
@@ -1688,41 +1662,38 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3600</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>80</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1730,16 +1701,15 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1747,7 +1717,6 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30">
       <c r="A9" s="1"/>
@@ -1764,16 +1733,15 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1781,16 +1749,15 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
     </row>
     <row r="11" s="1" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1798,15 +1765,14 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
     </row>
     <row r="12" s="1" customFormat="1">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1814,7 +1780,6 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
@@ -1822,97 +1787,91 @@
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="1"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
     </row>
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
     </row>
     <row r="19" s="1" customFormat="1">
       <c r="A19" s="6"/>
@@ -1920,16 +1879,15 @@
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1">
       <c r="A20" s="6"/>
@@ -1937,24 +1895,23 @@
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
     </row>
     <row r="21" s="1" customFormat="1">
       <c r="A21" s="6"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1962,15 +1919,14 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
       <c r="A22" s="6"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1978,15 +1934,14 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
       <c r="A23" s="6"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1994,15 +1949,14 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
       <c r="A24" s="6"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="6"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2010,15 +1964,14 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
       <c r="A25" s="6"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2026,16 +1979,15 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2043,16 +1995,15 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2060,15 +2011,14 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
       <c r="A28" s="6"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2076,15 +2026,14 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
       <c r="A29" s="6"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2092,15 +2041,14 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
       <c r="A30" s="6"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2108,15 +2056,14 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
       <c r="A31" s="6"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2124,15 +2071,14 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
       <c r="A32" s="6"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2140,15 +2086,14 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
       <c r="A33" s="6"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2156,15 +2101,14 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
       <c r="A34" s="6"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2172,15 +2116,14 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
       <c r="A35" s="6"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2188,13 +2131,12 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
       <c r="A36" s="6"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2204,13 +2146,12 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
       <c r="A37" s="6"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2220,13 +2161,12 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
       <c r="A38" s="6"/>
       <c r="C38" s="1"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2236,13 +2176,12 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
       <c r="A39" s="6"/>
       <c r="C39" s="1"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2252,13 +2191,12 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
       <c r="A40" s="6"/>
       <c r="C40" s="1"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -2268,13 +2206,12 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
       <c r="A41" s="6"/>
       <c r="C41" s="1"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2284,13 +2221,12 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
       <c r="A42" s="6"/>
       <c r="C42" s="1"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2300,13 +2236,12 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
       <c r="A43" s="6"/>
       <c r="C43" s="1"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2316,13 +2251,12 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
       <c r="A44" s="6"/>
       <c r="C44" s="1"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2332,7 +2266,6 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="15">
       <c r="D45" s="1"/>
@@ -2346,7 +2279,6 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E759AA7-A84F-4CCD-A2D8-42075245941C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A94F48-8EC9-4133-B596-22FFDFAB0EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,6 +148,97 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <color theme="1"/>
@@ -174,13 +265,6 @@
         <b/>
         <color theme="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
@@ -197,86 +281,56 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
       <border>
         <left/>
         <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
+        <top style="double">
           <color theme="4"/>
         </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
+        <b/>
+        <color theme="0"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -302,82 +356,28 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="11"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
       <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="0"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="6"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="1"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
       <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="4"/>
-      <tableStyleElement type="pageFieldValues" dxfId="3"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -713,17 +713,17 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4">
         <v>3600</v>
@@ -735,21 +735,21 @@
         <v>80</v>
       </c>
       <c r="H5" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
       </c>
       <c r="D6" s="4">
         <v>20</v>
@@ -758,7 +758,7 @@
         <v>3600</v>
       </c>
       <c r="F6" s="6">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="G6" s="1">
         <v>80</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>3600</v>
       </c>
       <c r="F7" s="6">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="G7" s="1">
         <v>80</v>
@@ -796,41 +796,17 @@
         <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+    </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
@@ -841,17 +817,24 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -859,6 +842,7 @@
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
@@ -901,7 +885,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -910,11 +894,13 @@
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -939,18 +925,8 @@
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
-      <c r="B20" s="5"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
@@ -974,6 +950,7 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
       <c r="D25" s="4"/>
       <c r="F25" s="6"/>
     </row>
@@ -985,7 +962,6 @@
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
-      <c r="B27" s="5"/>
       <c r="D27" s="4"/>
       <c r="F27" s="6"/>
     </row>
@@ -1027,7 +1003,6 @@
     <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="D35" s="4"/>
-      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
@@ -1035,7 +1010,7 @@
     </row>
     <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
@@ -1061,11 +1036,7 @@
       <c r="A43" s="6"/>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -13,11 +13,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -27,7 +30,7 @@
     <t>qualityId</t>
   </si>
   <si>
-    <t>areaId</t>
+    <t>areaIds</t>
   </si>
   <si>
     <t>existenceCount</t>
@@ -57,7 +60,7 @@
     <t xml:space="preserve">品质 ID</t>
   </si>
   <si>
-    <t xml:space="preserve">生成区域 ID</t>
+    <t xml:space="preserve">生成区域 ID 集合</t>
   </si>
   <si>
     <t>最大存在数量</t>
@@ -193,7 +196,7 @@
           <color theme="4"/>
         </top>
         <bottom style="none"/>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -213,7 +216,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
@@ -246,7 +249,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -263,7 +266,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -284,7 +287,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -304,7 +307,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -321,7 +324,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
     <dxf>
@@ -355,7 +358,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </bottom>
-        <diagonal/>
+        <diagonal style="none"/>
       </border>
     </dxf>
   </dxfs>
@@ -889,14 +892,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" style="1" width="16.125"/>
-    <col customWidth="1" min="3" max="4" width="10.75"/>
-    <col customWidth="1" min="5" max="5" width="15"/>
-    <col customWidth="1" min="6" max="6" width="17.125"/>
-    <col customWidth="1" min="7" max="7" width="16.25"/>
-    <col customWidth="1" min="8" max="8" width="42.875"/>
-    <col customWidth="1" min="9" max="9" width="13.625"/>
-    <col customWidth="1" min="10" max="10" width="16.125"/>
+    <col customWidth="1" min="1" max="1" width="10.625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="10.625"/>
+    <col customWidth="1" min="3" max="3" width="10.625"/>
+    <col customWidth="1" min="4" max="10" width="15.625"/>
     <col customWidth="1" min="11" max="11" width="23.375"/>
     <col customWidth="1" min="12" max="12" width="51.25"/>
     <col customWidth="1" min="13" max="15" width="17.125"/>
@@ -913,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -936,66 +935,66 @@
     </row>
     <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1">

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C9D89A-FCC0-45A9-9E79-0718BCA93A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>int</t>
   </si>
@@ -51,25 +58,25 @@
     <t>resultAlgo</t>
   </si>
   <si>
-    <t xml:space="preserve">采集物品 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背包物 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品质 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生成区域 ID 集合</t>
+    <t>采集物品 ID</t>
+  </si>
+  <si>
+    <t>背包物 ID</t>
+  </si>
+  <si>
+    <t>品质 ID</t>
+  </si>
+  <si>
+    <t>生成区域 ID 集合</t>
   </si>
   <si>
     <t>最大存在数量</t>
   </si>
   <si>
-    <t xml:space="preserve">存在时间（秒 Sec）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生成间隔（秒 Sec）</t>
+    <t>存在时间（秒 Sec）</t>
+  </si>
+  <si>
+    <t>生成间隔（秒 Sec）</t>
   </si>
   <si>
     <t>采集成功率（%）</t>
@@ -78,22 +85,41 @@
     <t>可采集次数</t>
   </si>
   <si>
-    <t xml:space="preserve">采集结果算法 ID</t>
+    <t>采集结果算法 ID</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8|9|10|11|12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,38 +132,41 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -145,26 +174,179 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -177,27 +359,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom style="none"/>
-        <diagonal style="none"/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -216,468 +377,48 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <diagonal style="none"/>
         <horizontal style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="none"/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal style="none"/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <diagonal style="none"/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="none"/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal style="none"/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="none"/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal style="none"/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="none"/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal style="none"/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="none"/>
-        <right style="none"/>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-        <diagonal style="none"/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="firstColumn" size="1" dxfId="0"/>
-      <tableStyleElement type="firstColumnStripe" size="1" dxfId="1"/>
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="3"/>
-      <tableStyleElement type="lastColumn" size="1" dxfId="4"/>
-      <tableStyleElement type="totalRow" size="1" dxfId="5"/>
-      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="firstColumnStripe" size="1" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
-      <tableStyleElement type="firstRowSubheading" size="1" dxfId="9"/>
-      <tableStyleElement type="firstSubtotalRow" size="1" dxfId="10"/>
-      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
-      <tableStyleElement type="pageFieldLabels" size="1" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" size="1" dxfId="13"/>
-      <tableStyleElement type="secondRowSubheading" size="1" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" size="1" dxfId="15"/>
-      <tableStyleElement type="totalRow" size="1" dxfId="16"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -880,28 +621,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.625"/>
-    <col customWidth="1" min="2" max="2" style="1" width="10.625"/>
-    <col customWidth="1" min="3" max="3" width="10.625"/>
-    <col customWidth="1" min="4" max="10" width="15.625"/>
-    <col customWidth="1" min="11" max="11" width="23.375"/>
-    <col customWidth="1" min="12" max="12" width="51.25"/>
-    <col customWidth="1" min="13" max="15" width="17.125"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.59765625" customWidth="1"/>
+    <col min="11" max="11" width="23.3984375" customWidth="1"/>
+    <col min="12" max="12" width="51.19921875" customWidth="1"/>
+    <col min="13" max="15" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -933,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -965,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -997,10 +741,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F4" s="5"/>
     </row>
-    <row r="5" s="1" customFormat="1">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1010,29 +754,29 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
+        <v>90</v>
+      </c>
+      <c r="G5" s="6">
+        <v>120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>75</v>
+      </c>
+      <c r="I5" s="1">
         <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3600</v>
-      </c>
-      <c r="G5" s="6">
-        <v>300</v>
-      </c>
-      <c r="H5" s="1">
-        <v>80</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1042,29 +786,29 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6">
+        <v>120</v>
+      </c>
+      <c r="H6" s="1">
+        <v>75</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3600</v>
-      </c>
-      <c r="G6" s="6">
-        <v>300</v>
-      </c>
-      <c r="H6" s="1">
-        <v>80</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1">
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1074,46 +818,46 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>90</v>
+      </c>
+      <c r="G7" s="6">
+        <v>120</v>
+      </c>
+      <c r="H7" s="1">
+        <v>75</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5">
-        <v>3600</v>
-      </c>
-      <c r="G7" s="6">
-        <v>300</v>
-      </c>
-      <c r="H7" s="1">
-        <v>80</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1">
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" s="1" customFormat="1">
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" s="1" customFormat="1">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" s="1" customFormat="1">
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1126,7 +870,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" s="1" customFormat="1">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1138,7 +882,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" s="1" customFormat="1">
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
@@ -1151,7 +895,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" s="1" customFormat="1">
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
@@ -1164,7 +908,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" s="1" customFormat="1">
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
@@ -1177,7 +921,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" s="1" customFormat="1">
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
@@ -1190,7 +934,7 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" s="1" customFormat="1">
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="E18" s="5"/>
@@ -1205,7 +949,7 @@
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" s="1" customFormat="1">
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="E19" s="5"/>
@@ -1220,124 +964,124 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" s="1" customFormat="1">
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="E20" s="5"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" s="1" customFormat="1">
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="E21" s="5"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" s="1" customFormat="1">
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="E22" s="5"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" s="1" customFormat="1">
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="E23" s="5"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" s="1" customFormat="1">
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="E24" s="5"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" s="1" customFormat="1">
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="E25" s="5"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" s="1" customFormat="1">
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="E26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" s="1" customFormat="1">
+    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="E27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" s="1" customFormat="1">
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="E28" s="5"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" s="1" customFormat="1">
+    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="E29" s="5"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" s="1" customFormat="1">
+    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="E30" s="5"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" s="1" customFormat="1">
+    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="E31" s="5"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" s="1" customFormat="1">
+    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="E32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" s="1" customFormat="1">
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="E33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" s="1" customFormat="1">
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="E34" s="5"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" s="1" customFormat="1">
+    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" s="1" customFormat="1">
+    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" s="1" customFormat="1">
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" s="1" customFormat="1">
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" s="1" customFormat="1">
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" s="1" customFormat="1">
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" s="1" customFormat="1">
+    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" s="1" customFormat="1">
+    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" s="1" customFormat="1">
+    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" s="1" customFormat="1"/>
+    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C9D89A-FCC0-45A9-9E79-0718BCA93A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EEFAA-F51E-4D0E-919C-D2DD3C5EA8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -761,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G5" s="6">
         <v>120</v>
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G6" s="6">
         <v>120</v>
@@ -825,7 +825,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G7" s="6">
         <v>120</v>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EEFAA-F51E-4D0E-919C-D2DD3C5EA8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -28,6 +21,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -40,6 +36,9 @@
     <t>areaIds</t>
   </si>
   <si>
+    <t>prefabGuid</t>
+  </si>
+  <si>
     <t>existenceCount</t>
   </si>
   <si>
@@ -58,25 +57,28 @@
     <t>resultAlgo</t>
   </si>
   <si>
-    <t>采集物品 ID</t>
-  </si>
-  <si>
-    <t>背包物 ID</t>
-  </si>
-  <si>
-    <t>品质 ID</t>
-  </si>
-  <si>
-    <t>生成区域 ID 集合</t>
+    <t xml:space="preserve">采集物品 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">背包物 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品质 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成区域 ID 集合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预制体 Guid</t>
   </si>
   <si>
     <t>最大存在数量</t>
   </si>
   <si>
-    <t>存在时间（秒 Sec）</t>
-  </si>
-  <si>
-    <t>生成间隔（秒 Sec）</t>
+    <t xml:space="preserve">存在时间（秒 Sec）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生成间隔（秒 Sec）</t>
   </si>
   <si>
     <t>采集成功率（%）</t>
@@ -85,41 +87,25 @@
     <t>可采集次数</t>
   </si>
   <si>
-    <t>采集结果算法 ID</t>
+    <t xml:space="preserve">采集结果算法 ID</t>
   </si>
   <si>
     <t>1|2|3|4|5|6|7|8|9|10|11|12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,41 +118,38 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -174,179 +157,26 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79995117038483843"/>
           <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -359,6 +189,27 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+        <bottom style="none"/>
+        <diagonal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -377,48 +228,468 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
+        <diagonal/>
         <horizontal style="thin">
           <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="none"/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="none"/>
+        <right style="none"/>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="firstColumn" size="1" dxfId="0"/>
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="3"/>
+      <tableStyleElement type="lastColumn" size="1" dxfId="4"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="5"/>
+      <tableStyleElement type="wholeTable" size="1" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="firstColumnStripe" size="1" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" size="1" dxfId="8"/>
+      <tableStyleElement type="firstRowSubheading" size="1" dxfId="9"/>
+      <tableStyleElement type="firstSubtotalRow" size="1" dxfId="10"/>
+      <tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <tableStyleElement type="pageFieldLabels" size="1" dxfId="12"/>
+      <tableStyleElement type="pageFieldValues" size="1" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" size="1" dxfId="14"/>
+      <tableStyleElement type="secondSubtotalRow" size="1" dxfId="15"/>
+      <tableStyleElement type="totalRow" size="1" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,31 +892,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="120" workbookViewId="0">
+      <selection activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15.59765625" customWidth="1"/>
-    <col min="11" max="11" width="23.3984375" customWidth="1"/>
-    <col min="12" max="12" width="51.19921875" customWidth="1"/>
-    <col min="13" max="15" width="17.09765625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="10.59765625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="10.59765625"/>
+    <col customWidth="1" min="3" max="3" width="10.59765625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="22.8984375"/>
+    <col customWidth="1" min="5" max="5" width="22.8984375"/>
+    <col customWidth="1" min="6" max="11" width="15.59765625"/>
+    <col customWidth="1" min="12" max="12" width="23.3984375"/>
+    <col customWidth="1" min="13" max="13" width="51.19921875"/>
+    <col customWidth="1" min="14" max="16" width="17.09765625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,11 +925,11 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -670,81 +940,90 @@
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -754,29 +1033,30 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5">
         <v>12</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>100</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>120</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>75</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -786,29 +1066,30 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5">
         <v>12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>100</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>120</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>75</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -818,270 +1099,271 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>100</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <v>120</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>75</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1">
       <c r="B9" s="7"/>
-      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" s="1" customFormat="1">
       <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" s="1" customFormat="1">
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" s="1" customFormat="1">
       <c r="B12" s="7"/>
-      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="K12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="5"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="6"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" s="1" customFormat="1">
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="5"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" s="1" customFormat="1">
       <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="5"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" s="1" customFormat="1">
       <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="5"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" s="1" customFormat="1">
       <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="5"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" s="1" customFormat="1">
       <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" s="1" customFormat="1">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
-      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" s="1" customFormat="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" s="1" customFormat="1">
       <c r="A20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" s="1" customFormat="1">
       <c r="A21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" s="1" customFormat="1">
       <c r="A22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" s="1" customFormat="1">
       <c r="A23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" s="1" customFormat="1">
       <c r="A24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" s="1" customFormat="1">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="E25" s="5"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" s="1" customFormat="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F26" s="5"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" s="1" customFormat="1">
       <c r="A27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="5"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" s="1" customFormat="1">
       <c r="A28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="5"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" s="1" customFormat="1">
       <c r="A29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" s="1" customFormat="1">
       <c r="A30" s="6"/>
-      <c r="E30" s="5"/>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="5"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" s="1" customFormat="1">
       <c r="A31" s="6"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="5"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" s="1" customFormat="1">
       <c r="A32" s="6"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" s="1" customFormat="1">
       <c r="A33" s="6"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="5"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" s="1" customFormat="1">
       <c r="A34" s="6"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="5"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" s="1" customFormat="1">
       <c r="A35" s="6"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" s="1" customFormat="1">
       <c r="A36" s="6"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" s="1" customFormat="1">
       <c r="A37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" s="1" customFormat="1">
       <c r="A38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" s="1" customFormat="1">
       <c r="A39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" s="1" customFormat="1">
       <c r="A40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" s="1" customFormat="1">
       <c r="A41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" s="1" customFormat="1">
       <c r="A42" s="6"/>
-      <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" s="1" customFormat="1">
       <c r="A43" s="6"/>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78750000000000009" right="0.78750000000000009" top="1.0249999999999997" bottom="1.0249999999999997" header="0.78750000000000009" footer="0.78750000000000009"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5391C1B-CA3D-41B4-B86D-EBFD2EF8DFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,125 +27,117 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int[]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bagId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qualityId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">areaIds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefabGuid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existenceCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">existenceTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generationInterval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">successRate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hitPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resultAlgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采集物品 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">背包物 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品质 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生成区域 ID 集合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">预制体 Guid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大存在数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">存在时间（秒 Sec）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生成间隔（秒 Sec）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采集成功率（%）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">可采集次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">采集结果算法 ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1|2|3|4|5|6|7|8|9|10|11|12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19864DB9433C12B44D2F95BE76825159</t>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>bagId</t>
+  </si>
+  <si>
+    <t>qualityId</t>
+  </si>
+  <si>
+    <t>areaIds</t>
+  </si>
+  <si>
+    <t>prefabGuid</t>
+  </si>
+  <si>
+    <t>existenceCount</t>
+  </si>
+  <si>
+    <t>existenceTime</t>
+  </si>
+  <si>
+    <t>generationInterval</t>
+  </si>
+  <si>
+    <t>successRate</t>
+  </si>
+  <si>
+    <t>hitPoint</t>
+  </si>
+  <si>
+    <t>resultAlgo</t>
+  </si>
+  <si>
+    <t>采集物品 ID</t>
+  </si>
+  <si>
+    <t>背包物 ID</t>
+  </si>
+  <si>
+    <t>品质 ID</t>
+  </si>
+  <si>
+    <t>生成区域 ID 集合</t>
+  </si>
+  <si>
+    <t>预制体 Guid</t>
+  </si>
+  <si>
+    <t>最大存在数量</t>
+  </si>
+  <si>
+    <t>存在时间（秒 Sec）</t>
+  </si>
+  <si>
+    <t>生成间隔（秒 Sec）</t>
+  </si>
+  <si>
+    <t>采集成功率（%）</t>
+  </si>
+  <si>
+    <t>可采集次数</t>
+  </si>
+  <si>
+    <t>采集结果算法 ID</t>
+  </si>
+  <si>
+    <t>19864DB9433C12B44D2F95BE76825159</t>
+  </si>
+  <si>
+    <t>1|2|3|4|5|6|7|8|9|10|11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +149,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -160,96 +157,365 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="22.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="15.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="51.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="17.1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="5" width="22.8984375" customWidth="1"/>
+    <col min="6" max="11" width="15.59765625" customWidth="1"/>
+    <col min="12" max="12" width="23.3984375" customWidth="1"/>
+    <col min="13" max="13" width="51.19921875" customWidth="1"/>
+    <col min="14" max="16" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -284,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -319,7 +585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -354,132 +620,132 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1">
+        <v>75</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G6" s="4">
         <v>100</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H6" s="5">
         <v>120</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I6" s="1">
         <v>75</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="F7" s="4">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G7" s="4">
         <v>100</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H7" s="5">
         <v>120</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I7" s="1">
         <v>75</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -492,7 +758,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
@@ -504,7 +770,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -517,7 +783,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -530,7 +796,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -543,7 +809,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -556,7 +822,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="F18" s="4"/>
@@ -571,7 +837,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="F19" s="4"/>
@@ -586,125 +852,125 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="F20" s="4"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="F21" s="4"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="F22" s="4"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="F23" s="4"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="F24" s="4"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="F25" s="4"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="F26" s="4"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="F27" s="4"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="F28" s="4"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="F29" s="4"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="F30" s="4"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="F31" s="4"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="F32" s="4"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="F33" s="4"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="F34" s="4"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>
   </headerFooter>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5391C1B-CA3D-41B4-B86D-EBFD2EF8DFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E05BBC-CF09-4EEC-996E-627019A53AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>int</t>
   </si>
@@ -105,15 +105,15 @@
     <t>19864DB9433C12B44D2F95BE76825159</t>
   </si>
   <si>
-    <t>1|2|3|4|5|6|7|8|9|10|11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1|3|5|7|9|11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,16 +127,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -160,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,9 +187,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,7 +508,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -508,7 +516,8 @@
     <col min="1" max="1" width="10.59765625" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="5" width="22.8984375" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" customWidth="1"/>
+    <col min="5" max="5" width="31.19921875" customWidth="1"/>
     <col min="6" max="11" width="15.59765625" customWidth="1"/>
     <col min="12" max="12" width="23.3984375" customWidth="1"/>
     <col min="13" max="13" width="51.19921875" customWidth="1"/>
@@ -643,10 +652,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="4">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="H5" s="5">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1">
         <v>75</v>
@@ -671,17 +680,17 @@
       <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
+      <c r="E6" s="8">
+        <v>175232</v>
       </c>
       <c r="F6" s="4">
         <v>12</v>
       </c>
       <c r="G6" s="4">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="H6" s="5">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>75</v>
@@ -706,17 +715,17 @@
       <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+      <c r="E7" s="8">
+        <v>162052</v>
       </c>
       <c r="F7" s="4">
         <v>12</v>
       </c>
       <c r="G7" s="4">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="H7" s="5">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1">
         <v>75</v>
@@ -967,7 +976,7 @@
     </row>
     <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E05BBC-CF09-4EEC-996E-627019A53AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>int</t>
   </si>
@@ -102,18 +104,29 @@
     <t>采集结果算法 ID</t>
   </si>
   <si>
+    <t>1|3|5|7|9|11</t>
+  </si>
+  <si>
     <t>19864DB9433C12B44D2F95BE76825159</t>
   </si>
   <si>
-    <t>1|3|5|7|9|11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>7C2A738F4073FC29A8C315B727863B90</t>
+  </si>
+  <si>
+    <t>CFFF51B24D0477D0DEBA4281312404DC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -123,39 +136,367 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,46 +504,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -251,7 +878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -284,26 +911,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -336,23 +946,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,159 +1087,154 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="22.8984375" customWidth="1"/>
-    <col min="5" max="5" width="31.19921875" customWidth="1"/>
-    <col min="6" max="11" width="15.59765625" customWidth="1"/>
-    <col min="12" max="12" width="23.3984375" customWidth="1"/>
-    <col min="13" max="13" width="51.19921875" customWidth="1"/>
-    <col min="14" max="16" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="10.6" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6" customWidth="1"/>
+    <col min="4" max="4" width="22.9" customWidth="1"/>
+    <col min="5" max="5" width="31.2" customWidth="1"/>
+    <col min="6" max="11" width="15.6" customWidth="1"/>
+    <col min="12" max="12" width="23.4" customWidth="1"/>
+    <col min="13" max="13" width="51.2" customWidth="1"/>
+    <col min="14" max="16" width="17.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" s="2" customFormat="1" spans="7:7">
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" s="2" customFormat="1" spans="1:11">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>12</v>
@@ -654,34 +1242,34 @@
       <c r="G5" s="4">
         <v>480</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>30</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>75</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" s="2" customFormat="1" spans="1:11">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8">
-        <v>175232</v>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>12</v>
@@ -689,34 +1277,34 @@
       <c r="G6" s="4">
         <v>480</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>75</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" s="2" customFormat="1" spans="1:11">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="8">
-        <v>162052</v>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F7" s="4">
         <v>12</v>
@@ -724,261 +1312,260 @@
       <c r="G7" s="4">
         <v>480</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>30</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>75</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="9" s="2" customFormat="1" spans="2:8">
+      <c r="B9" s="8"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="6:8">
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="6:8">
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:16">
+      <c r="B12" s="8"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="4"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="7:16">
       <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="6"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="6:16">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="6"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="6:16">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="6"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="6:16">
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="6"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="6:16">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:16">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:16">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:8">
+      <c r="A20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:8">
+      <c r="A21" s="6"/>
       <c r="F21" s="4"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:8">
+      <c r="A22" s="6"/>
       <c r="F22" s="4"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:8">
+      <c r="A23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:8">
+      <c r="A24" s="6"/>
       <c r="F24" s="4"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:8">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
       <c r="F25" s="4"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:8">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="F26" s="4"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:8">
+      <c r="A27" s="6"/>
       <c r="F27" s="4"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:8">
+      <c r="A28" s="6"/>
       <c r="F28" s="4"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:8">
+      <c r="A29" s="6"/>
       <c r="F29" s="4"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:8">
+      <c r="A30" s="6"/>
       <c r="F30" s="4"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:8">
+      <c r="A31" s="6"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:8">
+      <c r="A32" s="6"/>
       <c r="F32" s="4"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:8">
+      <c r="A33" s="6"/>
       <c r="F33" s="4"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:8">
+      <c r="A34" s="6"/>
       <c r="F34" s="4"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:6">
+      <c r="A35" s="6"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
+    <row r="36" s="2" customFormat="1" spans="1:6">
+      <c r="A36" s="6"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="2" customFormat="1" spans="1:6">
+      <c r="A37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:6">
+      <c r="A38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:6">
+      <c r="A39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:6">
+      <c r="A40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:6">
+      <c r="A41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:6">
+      <c r="A42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:6">
+      <c r="A43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" s="2" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,标准"页 &amp;P</oddFooter>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -110,10 +110,10 @@
     <t>19864DB9433C12B44D2F95BE76825159</t>
   </si>
   <si>
-    <t>7C2A738F4073FC29A8C315B727863B90</t>
-  </si>
-  <si>
-    <t>CFFF51B24D0477D0DEBA4281312404DC</t>
+    <t>FB8A97A4467717F1B31D30BB00E15279</t>
+  </si>
+  <si>
+    <t>91ADF0AB4F8ECC6BC0BC8BABA83214F8</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9" defaultRowHeight="16.5"/>

--- a/Excels/CollectibleItem_采集物品表.xlsx
+++ b/Excels/CollectibleItem_采集物品表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5AACA-2509-4A32-8000-4CE74EE3E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -119,14 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -136,367 +134,39 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -504,255 +174,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -775,61 +203,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1087,32 +471,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6" customWidth="1"/>
-    <col min="2" max="2" width="10.6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6" customWidth="1"/>
-    <col min="4" max="4" width="22.9" customWidth="1"/>
-    <col min="5" max="5" width="31.2" customWidth="1"/>
-    <col min="6" max="11" width="15.6" customWidth="1"/>
-    <col min="12" max="12" width="23.4" customWidth="1"/>
-    <col min="13" max="13" width="51.2" customWidth="1"/>
-    <col min="14" max="16" width="17.1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="31.25" customWidth="1"/>
+    <col min="6" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="23.375" customWidth="1"/>
+    <col min="13" max="13" width="51.25" customWidth="1"/>
+    <col min="14" max="16" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1217,10 +601,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="7:7">
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G4" s="4"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:11">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1240,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="4">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="H5" s="6">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I5" s="2">
         <v>75</v>
@@ -1255,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:11">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1275,10 +659,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="4">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="H6" s="6">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I6" s="2">
         <v>75</v>
@@ -1290,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:11">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1310,10 +694,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="4">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="H7" s="6">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="I7" s="2">
         <v>75</v>
@@ -1325,24 +709,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1"/>
-    <row r="9" s="2" customFormat="1" spans="2:8">
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="6:8">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="6:8">
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="2:16">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1355,7 +739,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="7:16">
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G13" s="4"/>
       <c r="H13" s="6"/>
       <c r="I13" s="8"/>
@@ -1367,7 +751,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="6:16">
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="6"/>
@@ -1380,7 +764,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="6:16">
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
@@ -1393,7 +777,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="6:16">
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="6"/>
@@ -1406,7 +790,7 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="6:16">
+    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="6"/>
@@ -1419,7 +803,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:16">
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="F18" s="4"/>
@@ -1434,7 +818,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:16">
+    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="F19" s="4"/>
@@ -1449,122 +833,123 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:8">
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="F20" s="4"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:8">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="F21" s="4"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:8">
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="F22" s="4"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:8">
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="F23" s="4"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:8">
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="F24" s="4"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:8">
+    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="F25" s="4"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:8">
+    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="F26" s="4"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:8">
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="F27" s="4"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:8">
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="F28" s="4"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:8">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="F29" s="4"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:8">
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="F30" s="4"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:8">
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="F31" s="4"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:8">
+    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="F32" s="4"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:8">
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="F33" s="4"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:8">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="F34" s="4"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:6">
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:6">
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:6">
+    <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:6">
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:6">
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:6">
+    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:6">
+    <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:6">
+    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:6">
+    <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" s="2" customFormat="1"/>
+    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,标准"&amp;A</oddHeader>
